--- a/03_Outputs/all/idx13_saludmental_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx13_saludmental_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>-0.408404556291835</v>
       </c>
+      <c r="D2">
+        <v>0.1385948982610088</v>
+      </c>
+      <c r="E2">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>-0.4312563752187705</v>
       </c>
+      <c r="D3">
+        <v>0.1463498203608359</v>
+      </c>
+      <c r="E3">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>-0.3287872519662633</v>
       </c>
+      <c r="D4">
+        <v>0.1115762178304864</v>
+      </c>
+      <c r="E4">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>-0.3664477990573451</v>
       </c>
+      <c r="D5">
+        <v>0.1243565837988148</v>
+      </c>
+      <c r="E5">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>-0.400667892308853</v>
       </c>
+      <c r="D6">
+        <v>0.1359694080673226</v>
+      </c>
+      <c r="E6">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>-0.4232308246826642</v>
       </c>
+      <c r="D7">
+        <v>0.1436262945262088</v>
+      </c>
+      <c r="E7">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>-0.05525082846893625</v>
       </c>
+      <c r="D8">
+        <v>0.01874974907238017</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>-0.1119877018990238</v>
       </c>
+      <c r="D9">
+        <v>0.03800379773453984</v>
+      </c>
+      <c r="E9">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>-0.1061030748001057</v>
       </c>
+      <c r="D10">
+        <v>0.03600680900972324</v>
+      </c>
+      <c r="E10">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>-0.1289025074023539</v>
       </c>
+      <c r="D11">
+        <v>0.04374395344955986</v>
+      </c>
+      <c r="E11">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>-0.0455930383683523</v>
       </c>
+      <c r="D12">
+        <v>0.01547231150270688</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>-0.1401184370006759</v>
       </c>
+      <c r="D13">
+        <v>0.04755015638641272</v>
+      </c>
+      <c r="E13">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>-0.1422905354698255</v>
       </c>
+      <c r="D14">
+        <v>0.04896798282770719</v>
+      </c>
+      <c r="E14">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>-0.1233776143736374</v>
       </c>
+      <c r="D15">
+        <v>0.04245927448388121</v>
+      </c>
+      <c r="E15">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>0.062525686101095</v>
       </c>
+      <c r="D16">
+        <v>0.02151764144522679</v>
+      </c>
+      <c r="E16">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>-0.1309893165558222</v>
       </c>
+      <c r="D17">
+        <v>0.04507877198254574</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>-0.09725872052002736</v>
       </c>
+      <c r="D18">
+        <v>0.03347069670195622</v>
+      </c>
+      <c r="E18">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>-0.1464609058589735</v>
       </c>
+      <c r="D19">
+        <v>0.05040317755043899</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>0.3294957945370715</v>
       </c>
+      <c r="D20">
+        <v>0.1133929558660957</v>
+      </c>
+      <c r="E20">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>0.4957886174245393</v>
       </c>
+      <c r="D21">
+        <v>0.1706211057823022</v>
+      </c>
+      <c r="E21">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>0.3489079910685445</v>
       </c>
+      <c r="D22">
+        <v>0.1200734852720929</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>0.4511848358771119</v>
       </c>
+      <c r="D23">
+        <v>0.1552711234264596</v>
+      </c>
+      <c r="E23">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>0.1069321872223357</v>
       </c>
+      <c r="D24">
+        <v>0.03679973155166682</v>
+      </c>
+      <c r="E24">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>0.47057494923161</v>
       </c>
+      <c r="D25">
+        <v>0.1619440531096268</v>
+      </c>
+      <c r="E25">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>0.008540230220583875</v>
       </c>
+      <c r="D26">
+        <v>0.003855839871472163</v>
+      </c>
+      <c r="E26">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>0.02382846607256277</v>
       </c>
+      <c r="D27">
+        <v>0.01075834575713905</v>
+      </c>
+      <c r="E27">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>-0.03974948355945979</v>
       </c>
+      <c r="D28">
+        <v>0.01794654706258185</v>
+      </c>
+      <c r="E28">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>0.02921420817894213</v>
       </c>
+      <c r="D29">
+        <v>0.01318996160529171</v>
+      </c>
+      <c r="E29">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>-0.03649232067951181</v>
       </c>
+      <c r="D30">
+        <v>0.01647596627307195</v>
+      </c>
+      <c r="E30">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>0.0158195326690369</v>
       </c>
+      <c r="D31">
+        <v>0.007142381790400806</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>0.4162015856096453</v>
       </c>
+      <c r="D32">
+        <v>0.1879114060058545</v>
+      </c>
+      <c r="E32">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>-0.03180828949712933</v>
       </c>
+      <c r="D33">
+        <v>0.01436116682086064</v>
+      </c>
+      <c r="E33">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>-0.4353114575741748</v>
       </c>
+      <c r="D34">
+        <v>0.1965393474496302</v>
+      </c>
+      <c r="E34">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>-0.2724990014749141</v>
       </c>
+      <c r="D35">
+        <v>0.1230309356638738</v>
+      </c>
+      <c r="E35">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>0.7242470942393057</v>
       </c>
+      <c r="D36">
+        <v>0.3269912813398196</v>
+      </c>
+      <c r="E36">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>0.1811703028319647</v>
       </c>
+      <c r="D37">
+        <v>0.08179682036000387</v>
+      </c>
+      <c r="E37">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>0.08916924798021754</v>
       </c>
+      <c r="D38">
+        <v>0.03404798452791334</v>
+      </c>
+      <c r="E38">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>0.009679236960842925</v>
       </c>
+      <c r="D39">
+        <v>0.003695876299841627</v>
+      </c>
+      <c r="E39">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>-0.1877749985934396</v>
       </c>
+      <c r="D40">
+        <v>0.07169916077184781</v>
+      </c>
+      <c r="E40">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>-0.231981518123583</v>
       </c>
+      <c r="D41">
+        <v>0.08857877932968448</v>
+      </c>
+      <c r="E41">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>0.159493159686912</v>
       </c>
+      <c r="D42">
+        <v>0.06090015062740854</v>
+      </c>
+      <c r="E42">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>0.008253451970829757</v>
       </c>
+      <c r="D43">
+        <v>0.003151460973036703</v>
+      </c>
+      <c r="E43">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>-0.5769074247658494</v>
       </c>
+      <c r="D44">
+        <v>0.2202837358998893</v>
+      </c>
+      <c r="E44">
+        <v>22</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>-0.04011797397546537</v>
       </c>
+      <c r="D45">
+        <v>0.01531846671523923</v>
+      </c>
+      <c r="E45">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>0.4719927763927724</v>
       </c>
+      <c r="D46">
+        <v>0.1802235985154124</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>-0.1648274683426591</v>
       </c>
+      <c r="D47">
+        <v>0.06293697904855082</v>
+      </c>
+      <c r="E47">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>0.516367086130073</v>
       </c>
+      <c r="D48">
+        <v>0.197167285331159</v>
+      </c>
+      <c r="E48">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>0.1623644781684977</v>
       </c>
+      <c r="D49">
+        <v>0.06199652196001672</v>
+      </c>
+      <c r="E49">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>-0.2946096151076013</v>
       </c>
+      <c r="D50">
+        <v>0.1391784208634371</v>
+      </c>
+      <c r="E50">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>-0.08478951771565414</v>
       </c>
+      <c r="D51">
+        <v>0.04005596075717724</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>0.8984701804440334</v>
       </c>
+      <c r="D52">
+        <v>0.424452069771777</v>
+      </c>
+      <c r="E52">
+        <v>42.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>-0.04665126910900427</v>
       </c>
+      <c r="D53">
+        <v>0.02203882573043331</v>
+      </c>
+      <c r="E53">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>-0.09190398892654933</v>
       </c>
+      <c r="D54">
+        <v>0.04341695380572092</v>
+      </c>
+      <c r="E54">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>-0.128720133319608</v>
       </c>
+      <c r="D55">
+        <v>0.06080950508764271</v>
+      </c>
+      <c r="E55">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>-0.1713256115898945</v>
       </c>
+      <c r="D56">
+        <v>0.08093703277754585</v>
+      </c>
+      <c r="E56">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>-0.06643160980270561</v>
       </c>
+      <c r="D57">
+        <v>0.03138338354768123</v>
+      </c>
+      <c r="E57">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>0.0336679695218027</v>
       </c>
+      <c r="D58">
+        <v>0.01590530176692094</v>
+      </c>
+      <c r="E58">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>-0.1386247078056079</v>
       </c>
+      <c r="D59">
+        <v>0.06548858874817523</v>
+      </c>
+      <c r="E59">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>0.1277237076647746</v>
       </c>
+      <c r="D60">
+        <v>0.06033877724294259</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>-0.03385822144584054</v>
       </c>
+      <c r="D61">
+        <v>0.01599517990054583</v>
+      </c>
+      <c r="E61">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>-0.04380535808092636</v>
       </c>
+      <c r="D62">
+        <v>0.02044053667597675</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>-0.01694235873901428</v>
       </c>
+      <c r="D63">
+        <v>0.007905674564800931</v>
+      </c>
+      <c r="E63">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>-0.0979167875095851</v>
       </c>
+      <c r="D64">
+        <v>0.04569011130067609</v>
+      </c>
+      <c r="E64">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>0.7668100639004386</v>
       </c>
+      <c r="D65">
+        <v>0.3578103209591096</v>
+      </c>
+      <c r="E65">
+        <v>35.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>-0.5559430186374209</v>
       </c>
+      <c r="D66">
+        <v>0.2594151528499756</v>
+      </c>
+      <c r="E66">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>-0.04331467690121193</v>
       </c>
+      <c r="D67">
+        <v>0.02021157412231755</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>-0.1397584573431823</v>
       </c>
+      <c r="D68">
+        <v>0.06521434815859033</v>
+      </c>
+      <c r="E68">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>0.06533037581885419</v>
       </c>
+      <c r="D69">
+        <v>0.03048458000305869</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>0.2123643184057799</v>
       </c>
+      <c r="D70">
+        <v>0.09909382845410927</v>
+      </c>
+      <c r="E70">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>-0.07372924791686493</v>
       </c>
+      <c r="D71">
+        <v>0.03440367713357565</v>
+      </c>
+      <c r="E71">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>0.1220610664123431</v>
       </c>
+      <c r="D72">
+        <v>0.05695635908513888</v>
+      </c>
+      <c r="E72">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>-0.005087281610873169</v>
       </c>
+      <c r="D73">
+        <v>0.002373836692670543</v>
+      </c>
+      <c r="E73">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>0.07911455759958361</v>
       </c>
+      <c r="D74">
+        <v>0.03121602700733855</v>
+      </c>
+      <c r="E74">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>0.04369833411198312</v>
       </c>
+      <c r="D75">
+        <v>0.01724193902112584</v>
+      </c>
+      <c r="E75">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>0.01061065817954668</v>
       </c>
+      <c r="D76">
+        <v>0.004186620039952167</v>
+      </c>
+      <c r="E76">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>-0.08460795448448551</v>
       </c>
+      <c r="D77">
+        <v>0.0333835424523346</v>
+      </c>
+      <c r="E77">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>0.06187885462648478</v>
       </c>
+      <c r="D78">
+        <v>0.02441538012485443</v>
+      </c>
+      <c r="E78">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>-0.05177099791892274</v>
       </c>
+      <c r="D79">
+        <v>0.02042714916530692</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>0.3238518568756459</v>
       </c>
+      <c r="D80">
+        <v>0.1277813921651773</v>
+      </c>
+      <c r="E80">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>0.4772517389823758</v>
       </c>
+      <c r="D81">
+        <v>0.1883079881300068</v>
+      </c>
+      <c r="E81">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>0.3644315338288302</v>
       </c>
+      <c r="D82">
+        <v>0.1437928106721341</v>
+      </c>
+      <c r="E82">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>-0.543850230670447</v>
       </c>
+      <c r="D83">
+        <v>0.2145855832813925</v>
+      </c>
+      <c r="E83">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>-0.02859569125167371</v>
       </c>
+      <c r="D84">
+        <v>0.01128292816757733</v>
+      </c>
+      <c r="E84">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>-0.4647586944817729</v>
       </c>
+      <c r="D85">
+        <v>0.1833786397727994</v>
+      </c>
+      <c r="E85">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>0.7122871693927648</v>
       </c>
+      <c r="D86">
+        <v>0.3111416877537693</v>
+      </c>
+      <c r="E86">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>0.1687527069057847</v>
       </c>
+      <c r="D87">
+        <v>0.07371465371816979</v>
+      </c>
+      <c r="E87">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>0.1572043813566279</v>
       </c>
+      <c r="D88">
+        <v>0.068670107562498</v>
+      </c>
+      <c r="E88">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>-0.3183761606795967</v>
       </c>
+      <c r="D89">
+        <v>0.1390732561683866</v>
+      </c>
+      <c r="E89">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>-0.5395109304965499</v>
       </c>
+      <c r="D90">
+        <v>0.235669472495777</v>
+      </c>
+      <c r="E90">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>-0.1919588054942322</v>
       </c>
+      <c r="D91">
+        <v>0.08385155494460268</v>
+      </c>
+      <c r="E91">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>0.01323967611626655</v>
       </c>
+      <c r="D92">
+        <v>0.005783362875454159</v>
+      </c>
+      <c r="E92">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>-0.07975901048279413</v>
       </c>
+      <c r="D93">
+        <v>0.03484037646830484</v>
+      </c>
+      <c r="E93">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>-0.007470697960871443</v>
       </c>
+      <c r="D94">
+        <v>0.003263354545928165</v>
+      </c>
+      <c r="E94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>0.02385651364713271</v>
       </c>
+      <c r="D95">
+        <v>0.01042101590348414</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>-0.03305409883844679</v>
       </c>
+      <c r="D96">
+        <v>0.01443871031474838</v>
+      </c>
+      <c r="E96">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>0.04379932754380267</v>
       </c>
+      <c r="D97">
+        <v>0.0191324472488769</v>
+      </c>
+      <c r="E97">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>-0.3831458346142008</v>
       </c>
+      <c r="D98">
+        <v>0.1621539504416636</v>
+      </c>
+      <c r="E98">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>0.4598126710276692</v>
       </c>
+      <c r="D99">
+        <v>0.1946006829105853</v>
+      </c>
+      <c r="E99">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>-0.05614915855311483</v>
       </c>
+      <c r="D100">
+        <v>0.0237632959850151</v>
+      </c>
+      <c r="E100">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>-0.3043663239667325</v>
       </c>
+      <c r="D101">
+        <v>0.1288130976611265</v>
+      </c>
+      <c r="E101">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>-0.4228916956037466</v>
       </c>
+      <c r="D102">
+        <v>0.1789750869148022</v>
+      </c>
+      <c r="E102">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>0.6024226852787212</v>
       </c>
+      <c r="D103">
+        <v>0.2549557098851966</v>
+      </c>
+      <c r="E103">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>-0.01793718747815296</v>
       </c>
+      <c r="D104">
+        <v>0.007591328279280325</v>
+      </c>
+      <c r="E104">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>0.05394088085360411</v>
       </c>
+      <c r="D105">
+        <v>0.02282871463165534</v>
+      </c>
+      <c r="E105">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>0.02014396574678909</v>
       </c>
+      <c r="D106">
+        <v>0.008525275047534975</v>
+      </c>
+      <c r="E106">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>-0.01422566820224554</v>
       </c>
+      <c r="D107">
+        <v>0.006020549065838589</v>
+      </c>
+      <c r="E107">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>-0.01265705804068279</v>
       </c>
+      <c r="D108">
+        <v>0.005356686088817182</v>
+      </c>
+      <c r="E108">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>-0.01515916976497985</v>
       </c>
+      <c r="D109">
+        <v>0.006415623088483919</v>
+      </c>
+      <c r="E109">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>-0.02699055824016561</v>
       </c>
+      <c r="D110">
+        <v>0.0134676743402702</v>
+      </c>
+      <c r="E110">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>-0.1155308016205943</v>
       </c>
+      <c r="D111">
+        <v>0.05764724088518811</v>
+      </c>
+      <c r="E111">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>0.0160572844290707</v>
       </c>
+      <c r="D112">
+        <v>0.008012219516008379</v>
+      </c>
+      <c r="E112">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>-0.0009019617328395089</v>
       </c>
+      <c r="D113">
+        <v>0.0004500583788293579</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>-0.006520692533924299</v>
       </c>
+      <c r="D114">
+        <v>0.003253677183647052</v>
+      </c>
+      <c r="E114">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>0.1261216155841708</v>
       </c>
+      <c r="D115">
+        <v>0.06293181603886445</v>
+      </c>
+      <c r="E115">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>0.4740676561069601</v>
       </c>
+      <c r="D116">
+        <v>0.2365489720847126</v>
+      </c>
+      <c r="E116">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>-0.6879862082490232</v>
       </c>
+      <c r="D117">
+        <v>0.3432894614794121</v>
+      </c>
+      <c r="E117">
+        <v>34.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>0.5208672244657765</v>
       </c>
+      <c r="D118">
+        <v>0.2599008916824262</v>
+      </c>
+      <c r="E118">
+        <v>26</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>0.006507172648727818</v>
       </c>
+      <c r="D119">
+        <v>0.003246931068604752</v>
+      </c>
+      <c r="E119">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>0.01636954530689504</v>
       </c>
+      <c r="D120">
+        <v>0.008168030587951562</v>
+      </c>
+      <c r="E120">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>-0.006178692108206135</v>
       </c>
+      <c r="D121">
+        <v>0.00308302675408492</v>
+      </c>
+      <c r="E121">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2191,6 +2921,12 @@
       <c r="C122">
         <v>-0.2340435559566854</v>
       </c>
+      <c r="D122">
+        <v>0.1109469178407519</v>
+      </c>
+      <c r="E122">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2206,6 +2942,12 @@
       <c r="C123">
         <v>0.7317038429284149</v>
       </c>
+      <c r="D123">
+        <v>0.3468597364849701</v>
+      </c>
+      <c r="E123">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2221,6 +2963,12 @@
       <c r="C124">
         <v>-0.07686626314254977</v>
       </c>
+      <c r="D124">
+        <v>0.03643798243768086</v>
+      </c>
+      <c r="E124">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2236,6 +2984,12 @@
       <c r="C125">
         <v>0.04629018037323863</v>
       </c>
+      <c r="D125">
+        <v>0.02194357720173149</v>
+      </c>
+      <c r="E125">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2251,6 +3005,12 @@
       <c r="C126">
         <v>0.1086257033686624</v>
       </c>
+      <c r="D126">
+        <v>0.05149335104644915</v>
+      </c>
+      <c r="E126">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2266,6 +3026,12 @@
       <c r="C127">
         <v>-0.6018274841889464</v>
       </c>
+      <c r="D127">
+        <v>0.2852926420882733</v>
+      </c>
+      <c r="E127">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2281,6 +3047,12 @@
       <c r="C128">
         <v>0.05771973819897014</v>
       </c>
+      <c r="D128">
+        <v>0.02736168926153219</v>
+      </c>
+      <c r="E128">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2296,6 +3068,12 @@
       <c r="C129">
         <v>-0.1399385294315479</v>
       </c>
+      <c r="D129">
+        <v>0.06633700493967433</v>
+      </c>
+      <c r="E129">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2311,6 +3089,12 @@
       <c r="C130">
         <v>0.0625342724990893</v>
       </c>
+      <c r="D130">
+        <v>0.0296439898326945</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2326,6 +3110,12 @@
       <c r="C131">
         <v>0.02194770990563685</v>
       </c>
+      <c r="D131">
+        <v>0.01040417779391456</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2341,6 +3131,12 @@
       <c r="C132">
         <v>-0.007406828325007422</v>
       </c>
+      <c r="D132">
+        <v>0.003511161716356919</v>
+      </c>
+      <c r="E132">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2356,6 +3152,12 @@
       <c r="C133">
         <v>0.02060520038165862</v>
       </c>
+      <c r="D133">
+        <v>0.009767769355970625</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2371,6 +3173,12 @@
       <c r="C134">
         <v>0.01742311914788722</v>
       </c>
+      <c r="D134">
+        <v>0.009679385207128983</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2386,6 +3194,12 @@
       <c r="C135">
         <v>0.01027234335129783</v>
       </c>
+      <c r="D135">
+        <v>0.005706783465873223</v>
+      </c>
+      <c r="E135">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2401,6 +3215,12 @@
       <c r="C136">
         <v>0.01299450557108155</v>
       </c>
+      <c r="D136">
+        <v>0.007219076213109303</v>
+      </c>
+      <c r="E136">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2416,6 +3236,12 @@
       <c r="C137">
         <v>-0.02026229614923723</v>
       </c>
+      <c r="D137">
+        <v>0.01125668532394651</v>
+      </c>
+      <c r="E137">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2431,6 +3257,12 @@
       <c r="C138">
         <v>-0.01169422501020166</v>
       </c>
+      <c r="D138">
+        <v>0.006496707484567128</v>
+      </c>
+      <c r="E138">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2446,6 +3278,12 @@
       <c r="C139">
         <v>-0.01081514862347541</v>
       </c>
+      <c r="D139">
+        <v>0.006008338042712834</v>
+      </c>
+      <c r="E139">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2461,6 +3299,12 @@
       <c r="C140">
         <v>-0.0005210294967323773</v>
       </c>
+      <c r="D140">
+        <v>0.0002894570805802468</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2476,6 +3320,12 @@
       <c r="C141">
         <v>0.02004520019621321</v>
       </c>
+      <c r="D141">
+        <v>0.01113607802404848</v>
+      </c>
+      <c r="E141">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2491,6 +3341,12 @@
       <c r="C142">
         <v>0.003851626663634072</v>
       </c>
+      <c r="D142">
+        <v>0.002139764862704508</v>
+      </c>
+      <c r="E142">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2506,6 +3362,12 @@
       <c r="C143">
         <v>0.5972195192530128</v>
       </c>
+      <c r="D143">
+        <v>0.3317843223707324</v>
+      </c>
+      <c r="E143">
+        <v>33.2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2521,6 +3383,12 @@
       <c r="C144">
         <v>0.4021348037119814</v>
       </c>
+      <c r="D144">
+        <v>0.2234053292801752</v>
+      </c>
+      <c r="E144">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2535,6 +3403,12 @@
       </c>
       <c r="C145">
         <v>-0.6927895081760007</v>
+      </c>
+      <c r="D145">
+        <v>0.3848780726444213</v>
+      </c>
+      <c r="E145">
+        <v>38.5</v>
       </c>
     </row>
   </sheetData>
